--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A869820-49E0-426A-B44A-DBF148EC45E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A989A28F-0822-469C-9A5E-15D9F8B5A1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="655" firstSheet="8" activeTab="17" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="41" r:id="rId1"/>
@@ -12737,7 +12737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="217">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14498,6 +14498,30 @@
   </si>
   <si>
     <t>SnowMountainShadowGame</t>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Ring/Get Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Ring/Remove Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Ring/Get Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Ring/Remove Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼반지함이 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Ring/Disappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15535,7 +15559,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="A2:H13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15612,7 +15636,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>136</v>
@@ -15629,7 +15653,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
@@ -15640,7 +15664,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -15651,7 +15675,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>139</v>
@@ -15680,7 +15704,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15752,7 +15776,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>136</v>
@@ -15769,7 +15793,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
@@ -15780,7 +15804,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -15791,7 +15815,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>139</v>
@@ -15817,10 +15841,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A805CFC-5BC1-4539-96EF-5EC0BB405817}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15899,7 +15923,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>143</v>
@@ -15916,7 +15940,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>144</v>
@@ -15927,7 +15951,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>145</v>
@@ -15938,7 +15962,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>146</v>
@@ -15955,9 +15979,14 @@
         <v>148</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -15970,10 +15999,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9550A747-66C4-4F2A-9280-B10283B8F5BB}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16045,7 +16074,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>146</v>
@@ -16071,11 +16100,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="C9">
+    <row r="7" spans="1:6">
+      <c r="C7">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16088,9 +16117,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFEE5DE-40D5-488A-A079-CB1D1BD4C3A8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -16161,7 +16192,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>149</v>
@@ -16176,11 +16207,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="C9">
+    <row r="6" spans="1:6">
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16194,10 +16225,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C939AC5-8089-4FE1-8A0F-7CEDBDFFF404}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16276,7 +16307,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>149</v>
@@ -16293,102 +16324,175 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>154</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>155</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>150</v>
       </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>151</v>
       </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>161</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>162</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>156</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>157</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>152</v>
       </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>153</v>
       </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>160</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -18037,7 +18141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C200D7-C0B4-4460-8B8F-6B50F370EC7E}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8926F2AF-B6E3-40A0-8FBF-5642C36F64CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C3C71-8EC8-4DB1-8CB9-D01F719D7F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -82,6 +83,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -107,6 +109,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -127,6 +130,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">======
@@ -149,6 +153,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -169,6 +174,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">    (2023-06-16 00:03:06)
@@ -190,6 +196,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -210,6 +217,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -230,6 +238,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -251,6 +260,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">:, ()
@@ -272,6 +282,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -292,6 +303,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">, </t>
@@ -312,6 +324,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (</t>
@@ -332,6 +345,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -352,6 +366,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -372,6 +387,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">. </t>
@@ -392,6 +408,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">, </t>
@@ -412,6 +429,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (Random </t>
@@ -432,6 +450,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> Choice </t>
@@ -452,6 +471,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -472,6 +492,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>.))
@@ -493,6 +514,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -513,6 +535,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
@@ -537,6 +560,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -558,6 +582,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>1(value) : {$value}</t>
@@ -579,6 +604,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">- </t>
@@ -599,6 +625,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -619,6 +646,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (Script, ImmediatelyExecute</t>
@@ -639,6 +667,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -659,6 +688,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>)
@@ -680,6 +710,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -700,6 +731,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">)
@@ -724,6 +756,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>v0, v1, v2, v3</t>
@@ -743,6 +776,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (</t>
@@ -763,6 +797,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -783,6 +818,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>)
@@ -804,6 +840,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -824,6 +861,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>)
@@ -845,6 +883,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -865,6 +904,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -885,6 +925,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -905,6 +946,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">. </t>
@@ -925,6 +967,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> 0</t>
@@ -945,6 +988,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -965,6 +1009,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -985,6 +1030,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">(number)
@@ -1006,6 +1052,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> Index</t>
@@ -1026,6 +1073,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> Auto </t>
@@ -1046,6 +1094,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (Default - false)  (</t>
@@ -1066,6 +1115,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -1086,6 +1136,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">)
@@ -1107,6 +1158,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -1127,6 +1179,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">, </t>
@@ -1147,6 +1200,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -1167,6 +1221,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -1187,6 +1242,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">. (string)
@@ -1268,6 +1324,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1296,6 +1353,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1321,6 +1379,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1341,6 +1400,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1390,6 +1450,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1418,6 +1479,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1443,6 +1505,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1463,6 +1526,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1512,6 +1576,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1540,6 +1605,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1565,6 +1631,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1585,6 +1652,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1634,6 +1702,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1662,6 +1731,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1687,6 +1757,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1707,6 +1778,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1756,6 +1828,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1784,6 +1857,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1809,6 +1883,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1829,6 +1904,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1878,6 +1954,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1906,6 +1983,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1931,6 +2009,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -1951,6 +2030,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2000,6 +2080,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2028,6 +2109,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2053,6 +2135,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2073,6 +2156,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2122,6 +2206,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2150,6 +2235,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2175,6 +2261,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2195,6 +2282,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2244,6 +2332,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2272,6 +2361,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2297,6 +2387,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2317,6 +2408,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2366,6 +2458,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2394,6 +2487,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2419,6 +2513,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2439,6 +2534,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2488,6 +2584,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2516,6 +2613,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2541,6 +2639,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2561,6 +2660,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2610,6 +2710,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2638,6 +2739,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2663,6 +2765,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -2683,6 +2786,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">======
@@ -2705,6 +2809,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -2725,6 +2830,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">    (2023-06-16 00:03:06)
@@ -2746,6 +2852,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -2766,6 +2873,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -2786,6 +2894,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -2807,6 +2916,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">:, ()
@@ -2828,6 +2938,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -2848,6 +2959,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">, </t>
@@ -2868,6 +2980,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (</t>
@@ -2888,6 +3001,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -2908,6 +3022,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -2928,6 +3043,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">. </t>
@@ -2948,6 +3064,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">, </t>
@@ -2968,6 +3085,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (Random </t>
@@ -2988,6 +3106,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> Choice </t>
@@ -3008,6 +3127,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3028,6 +3148,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>.))
@@ -3049,6 +3170,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3069,6 +3191,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> - ex) Bag:Add, Cap:Add)
@@ -3093,6 +3216,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3114,6 +3238,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>1(value) : {$value}</t>
@@ -3135,6 +3260,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">- </t>
@@ -3155,6 +3281,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3175,6 +3302,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (Script, ImmediatelyExecute</t>
@@ -3195,6 +3323,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3215,6 +3344,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>)
@@ -3236,6 +3366,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3256,6 +3387,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">)
@@ -3280,6 +3412,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>v0, v1, v2, v3</t>
@@ -3299,6 +3432,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (</t>
@@ -3319,6 +3453,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3339,6 +3474,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>)
@@ -3360,6 +3496,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3380,6 +3517,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>)
@@ -3401,6 +3539,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3421,6 +3560,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3441,6 +3581,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3461,6 +3602,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">. </t>
@@ -3481,6 +3623,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> 0</t>
@@ -3501,6 +3644,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3521,6 +3665,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3541,6 +3686,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">(number)
@@ -3562,6 +3708,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> Index</t>
@@ -3582,6 +3729,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> Auto </t>
@@ -3602,6 +3750,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> (Default - false)  (</t>
@@ -3622,6 +3771,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3642,6 +3792,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">)
@@ -3663,6 +3814,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3683,6 +3835,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">, </t>
@@ -3703,6 +3856,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3723,6 +3877,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> </t>
@@ -3743,6 +3898,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">. (string)
@@ -3824,6 +3980,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -3852,6 +4009,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -3877,6 +4035,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -3897,6 +4056,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -3946,6 +4106,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -3974,6 +4135,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -3999,6 +4161,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4019,6 +4182,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4068,6 +4232,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4096,6 +4261,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4121,6 +4287,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4141,6 +4308,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4190,6 +4358,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4218,6 +4387,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4243,6 +4413,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4263,6 +4434,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4312,6 +4484,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4340,6 +4513,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4365,6 +4539,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -4385,6 +4560,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -5223,9 +5399,6 @@
     <t>(전진한다.)</t>
   </si>
   <si>
-    <t>0, 2, 1, 0</t>
-  </si>
-  <si>
     <t>&lt;시스템&gt;</t>
   </si>
   <si>
@@ -5263,9 +5436,6 @@
   </si>
   <si>
     <t>(되돌아 간다.)</t>
-  </si>
-  <si>
-    <t>0, 1, 2, 0</t>
   </si>
   <si>
     <r>
@@ -6595,12 +6765,44 @@
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Tendency-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결의</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Tendency-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애정</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6695,6 +6897,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -7051,7 +7260,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1"/>
@@ -8076,7 +8285,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8149,7 +8358,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -8166,7 +8375,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -8177,7 +8386,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -8185,7 +8394,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -8193,7 +8402,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -8204,7 +8413,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -8215,7 +8424,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -9243,7 +9452,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9316,7 +9525,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -9344,7 +9553,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -9352,7 +9561,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -9360,7 +9569,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -9368,24 +9577,24 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -9393,7 +9602,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -9410,7 +9619,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -10439,7 +10648,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10512,7 +10721,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -10540,7 +10749,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -10548,7 +10757,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -11583,7 +11792,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11656,7 +11865,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11673,7 +11882,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -11684,7 +11893,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -11695,7 +11904,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -11703,13 +11912,13 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
@@ -12731,7 +12940,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -12799,7 +13008,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -13839,7 +14048,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -13907,7 +14116,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -13924,7 +14133,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -13935,7 +14144,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -13946,7 +14155,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -13954,10 +14163,10 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -14984,7 +15193,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -15052,7 +15261,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -15066,10 +15275,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -16099,7 +16308,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -16167,7 +16376,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -17193,7 +17402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -17207,7 +17416,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -17275,7 +17484,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -17292,7 +17501,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -17303,7 +17512,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -17311,24 +17520,24 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
@@ -17336,7 +17545,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -17347,7 +17556,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -17358,7 +17567,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -17369,7 +17578,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -17377,24 +17586,24 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C14" s="1">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
@@ -17402,7 +17611,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -17424,7 +17633,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -17432,10 +17641,10 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -17443,13 +17652,13 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
@@ -20154,7 +20363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -20341,7 +20550,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -21876,8 +22085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -21952,7 +22161,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
@@ -21964,7 +22173,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
@@ -22015,16 +22224,16 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>87</v>
+      <c r="F9" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="A10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -22033,21 +22242,21 @@
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>91</v>
+      <c r="F11" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -22065,7 +22274,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -22084,7 +22293,7 @@
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1">
         <v>7</v>
@@ -22095,7 +22304,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -22112,7 +22321,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -22123,7 +22332,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -22140,7 +22349,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -22157,7 +22366,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -22171,7 +22380,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -22188,7 +22397,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -22202,7 +22411,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -22221,19 +22430,19 @@
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1">
         <v>7</v>
@@ -22244,7 +22453,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -22261,7 +22470,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -22295,7 +22504,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -22306,7 +22515,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -22323,7 +22532,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -22340,7 +22549,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -22357,7 +22566,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -22369,13 +22578,13 @@
     <row r="36" spans="1:6" ht="16.5" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1">
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
@@ -22397,7 +22606,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -22414,7 +22623,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -22428,7 +22637,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -22442,7 +22651,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -22464,13 +22673,13 @@
     <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1">
         <v>6</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1">
@@ -22495,7 +22704,7 @@
         <v>21</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -22520,19 +22729,19 @@
     <row r="47" spans="1:6" ht="16.5" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="1">
         <v>6</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C48" s="1">
         <v>7</v>
@@ -22541,13 +22750,13 @@
     <row r="49" spans="1:6" ht="16.5" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1">
         <v>6</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1">
@@ -22555,7 +22764,7 @@
         <v>21</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -22572,7 +22781,7 @@
         <v>28</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -22589,7 +22798,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -22598,7 +22807,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
@@ -22606,7 +22815,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -22624,10 +22833,10 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1">
         <v>4</v>
@@ -23608,7 +23817,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -23673,10 +23882,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -23690,10 +23899,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -24726,7 +24935,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -24794,7 +25003,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -24811,7 +25020,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -24822,7 +25031,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -24830,7 +25039,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -24838,7 +25047,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -25868,7 +26077,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -25941,7 +26150,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -25958,7 +26167,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -25969,7 +26178,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -25977,7 +26186,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -25985,7 +26194,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -27015,7 +27224,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -27088,7 +27297,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -27105,7 +27314,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -27116,7 +27325,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -27124,7 +27333,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -28162,7 +28371,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -28235,7 +28444,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -28252,7 +28461,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -28263,7 +28472,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -28271,12 +28480,12 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -28284,7 +28493,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -28300,7 +28509,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C3C71-8EC8-4DB1-8CB9-D01F719D7F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE790D-D628-466C-A57C-3917744B2FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -4598,7 +4598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="226">
   <si>
     <t>파일명</t>
   </si>
@@ -6314,9 +6314,6 @@
     </r>
   </si>
   <si>
-    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Get Sign</t>
-  </si>
-  <si>
     <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Remove Sign</t>
   </si>
   <si>
@@ -6477,9 +6474,6 @@
     <t>(···너무 멀리 와버렸어. 일단 나아가자.)</t>
   </si>
   <si>
-    <t>1-4, 6</t>
-  </si>
-  <si>
     <t>‘이 길은 맞아야만 하는 길’</t>
   </si>
   <si>
@@ -6508,9 +6502,6 @@
   </si>
   <si>
     <t>‘이 길은 틀려서는 안 되는 길’</t>
-  </si>
-  <si>
-    <t>1-4, branch</t>
   </si>
   <si>
     <t>···좋아. 이 나뭇가지에도 끈을 묶어 놓자.</t>
@@ -6795,6 +6786,58 @@
       </rPr>
       <t>애정</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F _ _ _ _ _</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Get Sign 1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Get Sign 2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Get Sign 3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Get Sign 4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Get Sign 5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4, 6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Get Sign 6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Get Sign 7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4, branch</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Remove Sign</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Ring/Get Password</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Ring/Remove Password</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -7260,7 +7303,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1"/>
@@ -8269,9 +8312,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8285,7 +8330,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8358,7 +8403,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -8375,48 +8420,42 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>139</v>
+      <c r="F8" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -8424,10 +8463,2442 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="20" ht="16.5" customHeight="1"/>
+    <row r="21" ht="16.5" customHeight="1"/>
+    <row r="22" ht="16.5" customHeight="1"/>
+    <row r="23" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="25" ht="16.5" customHeight="1"/>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="33" ht="16.5" customHeight="1"/>
+    <row r="34" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="36" ht="16.5" customHeight="1"/>
+    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="38" ht="16.5" customHeight="1"/>
+    <row r="39" ht="16.5" customHeight="1"/>
+    <row r="40" ht="16.5" customHeight="1"/>
+    <row r="41" ht="16.5" customHeight="1"/>
+    <row r="42" ht="16.5" customHeight="1"/>
+    <row r="43" ht="16.5" customHeight="1"/>
+    <row r="44" ht="16.5" customHeight="1"/>
+    <row r="45" ht="16.5" customHeight="1"/>
+    <row r="46" ht="16.5" customHeight="1"/>
+    <row r="47" ht="16.5" customHeight="1"/>
+    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
+    <row r="993" ht="16.5" customHeight="1"/>
+    <row r="994" ht="16.5" customHeight="1"/>
+    <row r="995" ht="16.5" customHeight="1"/>
+    <row r="996" ht="16.5" customHeight="1"/>
+    <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
+    <row r="999" ht="16.5" customHeight="1"/>
+    <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F1003"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="16.5" customHeight="1">
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="19" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="20" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="21" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="22" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="23" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="24" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="25" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="26" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="27" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="28" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="29" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="30" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="31" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="32" spans="3:6" ht="16.5" customHeight="1"/>
+    <row r="33" ht="16.5" customHeight="1"/>
+    <row r="34" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="36" ht="16.5" customHeight="1"/>
+    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="38" ht="16.5" customHeight="1"/>
+    <row r="39" ht="16.5" customHeight="1"/>
+    <row r="40" ht="16.5" customHeight="1"/>
+    <row r="41" ht="16.5" customHeight="1"/>
+    <row r="42" ht="16.5" customHeight="1"/>
+    <row r="43" ht="16.5" customHeight="1"/>
+    <row r="44" ht="16.5" customHeight="1"/>
+    <row r="45" ht="16.5" customHeight="1"/>
+    <row r="46" ht="16.5" customHeight="1"/>
+    <row r="47" ht="16.5" customHeight="1"/>
+    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
+    <row r="993" ht="16.5" customHeight="1"/>
+    <row r="994" ht="16.5" customHeight="1"/>
+    <row r="995" ht="16.5" customHeight="1"/>
+    <row r="996" ht="16.5" customHeight="1"/>
+    <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
+    <row r="999" ht="16.5" customHeight="1"/>
+    <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+    <row r="1003" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:F1002"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -9426,2349 +11897,8 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
-    <row r="177" ht="16.5" customHeight="1"/>
-    <row r="178" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="180" ht="16.5" customHeight="1"/>
-    <row r="181" ht="16.5" customHeight="1"/>
-    <row r="182" ht="16.5" customHeight="1"/>
-    <row r="183" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
-    <row r="185" ht="16.5" customHeight="1"/>
-    <row r="186" ht="16.5" customHeight="1"/>
-    <row r="187" ht="16.5" customHeight="1"/>
-    <row r="188" ht="16.5" customHeight="1"/>
-    <row r="189" ht="16.5" customHeight="1"/>
-    <row r="190" ht="16.5" customHeight="1"/>
-    <row r="191" ht="16.5" customHeight="1"/>
-    <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="194" ht="16.5" customHeight="1"/>
-    <row r="195" ht="16.5" customHeight="1"/>
-    <row r="196" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
-    <row r="198" ht="16.5" customHeight="1"/>
-    <row r="199" ht="16.5" customHeight="1"/>
-    <row r="200" ht="16.5" customHeight="1"/>
-    <row r="201" ht="16.5" customHeight="1"/>
-    <row r="202" ht="16.5" customHeight="1"/>
-    <row r="203" ht="16.5" customHeight="1"/>
-    <row r="204" ht="16.5" customHeight="1"/>
-    <row r="205" ht="16.5" customHeight="1"/>
-    <row r="206" ht="16.5" customHeight="1"/>
-    <row r="207" ht="16.5" customHeight="1"/>
-    <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
-    <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="243" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="245" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="247" ht="16.5" customHeight="1"/>
-    <row r="248" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
-    <row r="250" ht="16.5" customHeight="1"/>
-    <row r="251" ht="16.5" customHeight="1"/>
-    <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="254" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
-    <row r="256" ht="16.5" customHeight="1"/>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C10" s="1">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
-    <row r="177" ht="16.5" customHeight="1"/>
-    <row r="178" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="180" ht="16.5" customHeight="1"/>
-    <row r="181" ht="16.5" customHeight="1"/>
-    <row r="182" ht="16.5" customHeight="1"/>
-    <row r="183" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
-    <row r="185" ht="16.5" customHeight="1"/>
-    <row r="186" ht="16.5" customHeight="1"/>
-    <row r="187" ht="16.5" customHeight="1"/>
-    <row r="188" ht="16.5" customHeight="1"/>
-    <row r="189" ht="16.5" customHeight="1"/>
-    <row r="190" ht="16.5" customHeight="1"/>
-    <row r="191" ht="16.5" customHeight="1"/>
-    <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="194" ht="16.5" customHeight="1"/>
-    <row r="195" ht="16.5" customHeight="1"/>
-    <row r="196" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
-    <row r="198" ht="16.5" customHeight="1"/>
-    <row r="199" ht="16.5" customHeight="1"/>
-    <row r="200" ht="16.5" customHeight="1"/>
-    <row r="201" ht="16.5" customHeight="1"/>
-    <row r="202" ht="16.5" customHeight="1"/>
-    <row r="203" ht="16.5" customHeight="1"/>
-    <row r="204" ht="16.5" customHeight="1"/>
-    <row r="205" ht="16.5" customHeight="1"/>
-    <row r="206" ht="16.5" customHeight="1"/>
-    <row r="207" ht="16.5" customHeight="1"/>
-    <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
-    <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="243" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="245" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="247" ht="16.5" customHeight="1"/>
-    <row r="248" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
-    <row r="250" ht="16.5" customHeight="1"/>
-    <row r="251" ht="16.5" customHeight="1"/>
-    <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="254" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
-    <row r="256" ht="16.5" customHeight="1"/>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11781,7 +11911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -11792,7 +11924,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11865,7 +11997,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -11882,7 +12014,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -11893,7 +12025,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -11904,7 +12036,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -11912,13 +12044,13 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
@@ -12940,7 +13072,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -13008,7 +13140,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14034,7 +14166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -14048,7 +14182,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -14116,7 +14250,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14133,7 +14267,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -14144,7 +14278,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -14155,7 +14289,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -14163,10 +14297,10 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -15180,9 +15314,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -15193,7 +15329,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -15261,7 +15397,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -15275,10 +15411,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -15292,9 +15428,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
@@ -16285,6 +16439,7 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -16297,7 +16452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -16308,7 +16465,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -16376,7 +16533,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -17402,7 +17559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -17416,7 +17575,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -17484,7 +17643,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -17501,7 +17660,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -17512,7 +17671,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -17520,24 +17679,24 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
@@ -17545,7 +17704,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -17556,7 +17715,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -17567,7 +17726,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -17578,7 +17737,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -17586,24 +17745,24 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
@@ -17611,7 +17770,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -17633,7 +17792,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -17644,7 +17803,7 @@
         <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -17652,13 +17811,13 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
@@ -20363,7 +20522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -20550,7 +20709,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -22085,8 +22244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22161,7 +22320,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
@@ -22173,7 +22332,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
@@ -22225,7 +22384,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
@@ -22248,7 +22407,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
@@ -22756,7 +22915,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1">
@@ -23808,7 +23967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="A7:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -24919,9 +25080,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -25028,41 +25191,59 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="C7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>139</v>
+      <c r="F8" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
@@ -26051,6 +26232,8 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -26061,9 +26244,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -26077,7 +26262,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -26150,7 +26335,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -26167,49 +26352,69 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>139</v>
+      <c r="F8" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
@@ -27198,6 +27403,8 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -27208,9 +27415,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -27224,7 +27433,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -27297,7 +27506,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -27314,49 +27523,69 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>139</v>
+      <c r="F8" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
@@ -28345,6 +28574,8 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28355,9 +28586,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -28371,7 +28604,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -28444,7 +28677,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -28461,70 +28694,90 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>139</v>
+      <c r="F8" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C12" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="C13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
@@ -29510,6 +29763,8 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE790D-D628-466C-A57C-3917744B2FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DE7E2D-2DA8-489E-941F-0B876782947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -4598,7 +4598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="226">
   <si>
     <t>파일명</t>
   </si>
@@ -11911,8 +11911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="B10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12054,12 +12054,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C10" s="1">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
@@ -15316,7 +15312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -18819,7 +18815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -20522,8 +20520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -21039,9 +21037,7 @@
       <c r="D38" s="1">
         <v>4</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="A39" s="3"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DE7E2D-2DA8-489E-941F-0B876782947D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0923BABF-D1BF-42CF-9533-4FF065DA80EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -4598,7 +4598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="226">
   <si>
     <t>파일명</t>
   </si>
@@ -11911,7 +11911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F11" sqref="B10:F11"/>
     </sheetView>
   </sheetViews>
@@ -20521,7 +20521,7 @@
   <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22238,10 +22238,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22987,19 +22987,25 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="A55" s="3"/>
       <c r="B55" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1">
       <c r="A57" s="3"/>
@@ -23009,7 +23015,10 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="61" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="62" spans="1:6" ht="16.5" customHeight="1"/>
@@ -23951,6 +23960,7 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0923BABF-D1BF-42CF-9533-4FF065DA80EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273020F0-0393-4FF8-93CA-5676863BB3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -4598,7 +4598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="229">
   <si>
     <t>파일명</t>
   </si>
@@ -6840,6 +6840,18 @@
     <t>Hold, 0.5, name=Stage 1/4 SnowMountain/Ring/Remove Password</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>설산 Bgm 중기(In The Woods-LayerNetural)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>설산 Bgm 후기(In The Woods-LayerDark)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left, Appear</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -15310,10 +15322,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15433,18 +15445,1139 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C9">
+      <c r="C9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C10">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C10" s="1">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C11" s="1"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="20" ht="16.5" customHeight="1"/>
+    <row r="21" ht="16.5" customHeight="1"/>
+    <row r="22" ht="16.5" customHeight="1"/>
+    <row r="23" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="25" ht="16.5" customHeight="1"/>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="33" ht="16.5" customHeight="1"/>
+    <row r="34" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="36" ht="16.5" customHeight="1"/>
+    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="38" ht="16.5" customHeight="1"/>
+    <row r="39" ht="16.5" customHeight="1"/>
+    <row r="40" ht="16.5" customHeight="1"/>
+    <row r="41" ht="16.5" customHeight="1"/>
+    <row r="42" ht="16.5" customHeight="1"/>
+    <row r="43" ht="16.5" customHeight="1"/>
+    <row r="44" ht="16.5" customHeight="1"/>
+    <row r="45" ht="16.5" customHeight="1"/>
+    <row r="46" ht="16.5" customHeight="1"/>
+    <row r="47" ht="16.5" customHeight="1"/>
+    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
+    <row r="993" ht="16.5" customHeight="1"/>
+    <row r="994" ht="16.5" customHeight="1"/>
+    <row r="995" ht="16.5" customHeight="1"/>
+    <row r="996" ht="16.5" customHeight="1"/>
+    <row r="997" ht="16.5" customHeight="1"/>
+    <row r="998" ht="16.5" customHeight="1"/>
+    <row r="999" ht="16.5" customHeight="1"/>
+    <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:F1001"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>225</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
@@ -16439,1113 +17572,6 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C6" s="1">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="17" ht="16.5" customHeight="1"/>
-    <row r="18" ht="16.5" customHeight="1"/>
-    <row r="19" ht="16.5" customHeight="1"/>
-    <row r="20" ht="16.5" customHeight="1"/>
-    <row r="21" ht="16.5" customHeight="1"/>
-    <row r="22" ht="16.5" customHeight="1"/>
-    <row r="23" ht="16.5" customHeight="1"/>
-    <row r="24" ht="16.5" customHeight="1"/>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
-    <row r="27" ht="16.5" customHeight="1"/>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
-    <row r="30" ht="16.5" customHeight="1"/>
-    <row r="31" ht="16.5" customHeight="1"/>
-    <row r="32" ht="16.5" customHeight="1"/>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="16.5" customHeight="1"/>
-    <row r="35" ht="16.5" customHeight="1"/>
-    <row r="36" ht="16.5" customHeight="1"/>
-    <row r="37" ht="16.5" customHeight="1"/>
-    <row r="38" ht="16.5" customHeight="1"/>
-    <row r="39" ht="16.5" customHeight="1"/>
-    <row r="40" ht="16.5" customHeight="1"/>
-    <row r="41" ht="16.5" customHeight="1"/>
-    <row r="42" ht="16.5" customHeight="1"/>
-    <row r="43" ht="16.5" customHeight="1"/>
-    <row r="44" ht="16.5" customHeight="1"/>
-    <row r="45" ht="16.5" customHeight="1"/>
-    <row r="46" ht="16.5" customHeight="1"/>
-    <row r="47" ht="16.5" customHeight="1"/>
-    <row r="48" ht="16.5" customHeight="1"/>
-    <row r="49" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="51" ht="16.5" customHeight="1"/>
-    <row r="52" ht="16.5" customHeight="1"/>
-    <row r="53" ht="16.5" customHeight="1"/>
-    <row r="54" ht="16.5" customHeight="1"/>
-    <row r="55" ht="16.5" customHeight="1"/>
-    <row r="56" ht="16.5" customHeight="1"/>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="16.5" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
-    <row r="177" ht="16.5" customHeight="1"/>
-    <row r="178" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="180" ht="16.5" customHeight="1"/>
-    <row r="181" ht="16.5" customHeight="1"/>
-    <row r="182" ht="16.5" customHeight="1"/>
-    <row r="183" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
-    <row r="185" ht="16.5" customHeight="1"/>
-    <row r="186" ht="16.5" customHeight="1"/>
-    <row r="187" ht="16.5" customHeight="1"/>
-    <row r="188" ht="16.5" customHeight="1"/>
-    <row r="189" ht="16.5" customHeight="1"/>
-    <row r="190" ht="16.5" customHeight="1"/>
-    <row r="191" ht="16.5" customHeight="1"/>
-    <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="194" ht="16.5" customHeight="1"/>
-    <row r="195" ht="16.5" customHeight="1"/>
-    <row r="196" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
-    <row r="198" ht="16.5" customHeight="1"/>
-    <row r="199" ht="16.5" customHeight="1"/>
-    <row r="200" ht="16.5" customHeight="1"/>
-    <row r="201" ht="16.5" customHeight="1"/>
-    <row r="202" ht="16.5" customHeight="1"/>
-    <row r="203" ht="16.5" customHeight="1"/>
-    <row r="204" ht="16.5" customHeight="1"/>
-    <row r="205" ht="16.5" customHeight="1"/>
-    <row r="206" ht="16.5" customHeight="1"/>
-    <row r="207" ht="16.5" customHeight="1"/>
-    <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
-    <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="243" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="245" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="247" ht="16.5" customHeight="1"/>
-    <row r="248" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
-    <row r="250" ht="16.5" customHeight="1"/>
-    <row r="251" ht="16.5" customHeight="1"/>
-    <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="254" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
-    <row r="256" ht="16.5" customHeight="1"/>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -17556,7 +17582,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17635,20 +17661,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
@@ -17660,6 +17679,12 @@
       </c>
       <c r="C6" s="1">
         <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
@@ -20518,10 +20543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G999"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -20701,27 +20726,24 @@
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
@@ -20729,10 +20751,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
@@ -20740,101 +20765,108 @@
         <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C15" s="1">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="1">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1">
       <c r="A23" s="3"/>
@@ -20845,272 +20877,272 @@
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1">
-        <v>11</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="1">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+    <row r="33" spans="1:7" ht="16.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="6">
-        <v>4</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1">
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>74</v>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6">
+        <v>4</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1">
+    <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="1">
+    <row r="37" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1">
         <v>11</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>4</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1">
         <v>11</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>8</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="1">
+    <row r="43" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1">
         <v>11</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1">
+    <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1">
+    <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1">
+    <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1">
+    <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
@@ -21123,25 +21155,25 @@
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A51" s="7"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A52" s="3"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A53" s="7"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A55" s="3"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" ht="16.5" customHeight="1">
       <c r="A56" s="3"/>
@@ -21157,11 +21189,11 @@
     </row>
     <row r="59" spans="1:3" ht="16.5" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:3" ht="16.5" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" customHeight="1">
       <c r="A61" s="3"/>
@@ -21169,7 +21201,7 @@
     </row>
     <row r="62" spans="1:3" ht="16.5" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" customHeight="1">
       <c r="A63" s="3"/>
@@ -21177,7 +21209,7 @@
     </row>
     <row r="64" spans="1:3" ht="16.5" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2" ht="16.5" customHeight="1">
       <c r="A65" s="3"/>
@@ -21201,7 +21233,7 @@
     </row>
     <row r="70" spans="1:2" ht="16.5" customHeight="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" ht="16.5" customHeight="1">
       <c r="A71" s="3"/>
@@ -21209,7 +21241,7 @@
     </row>
     <row r="72" spans="1:2" ht="16.5" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2" ht="16.5" customHeight="1">
       <c r="A73" s="3"/>
@@ -21233,11 +21265,11 @@
     </row>
     <row r="78" spans="1:2" ht="16.5" customHeight="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" ht="16.5" customHeight="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2" ht="16.5" customHeight="1">
       <c r="A80" s="3"/>
@@ -21245,11 +21277,11 @@
     </row>
     <row r="81" spans="1:2" ht="16.5" customHeight="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2" ht="16.5" customHeight="1">
       <c r="A83" s="3"/>
@@ -21257,7 +21289,7 @@
     </row>
     <row r="84" spans="1:2" ht="16.5" customHeight="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2" ht="16.5" customHeight="1">
       <c r="A85" s="3"/>
@@ -21265,7 +21297,7 @@
     </row>
     <row r="86" spans="1:2" ht="16.5" customHeight="1">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2" ht="16.5" customHeight="1">
       <c r="A87" s="3"/>
@@ -21301,11 +21333,11 @@
     </row>
     <row r="95" spans="1:2" ht="16.5" customHeight="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2" ht="16.5" customHeight="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2" ht="16.5" customHeight="1">
       <c r="A97" s="3"/>
@@ -21313,11 +21345,11 @@
     </row>
     <row r="98" spans="1:2" ht="16.5" customHeight="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" ht="16.5" customHeight="1">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2" ht="16.5" customHeight="1">
       <c r="A100" s="3"/>
@@ -21331,7 +21363,10 @@
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="103" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+    </row>
     <row r="104" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="105" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="106" spans="1:2" ht="16.5" customHeight="1"/>
@@ -22228,6 +22263,7 @@
     <row r="997" ht="16.5" customHeight="1"/>
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
+    <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -22238,10 +22274,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22320,155 +22356,150 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="3"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
@@ -22476,224 +22507,224 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>100</v>
+      <c r="B24" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="C25" s="1">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>105</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>106</v>
+      <c r="B31" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>29</v>
@@ -22701,16 +22732,16 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>29</v>
@@ -22718,298 +22749,311 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>6</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>113</v>
+        <v>21</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>115</v>
+        <v>21</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>116</v>
+        <v>28</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>6</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
         <v>4</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="1">
-        <v>11</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>6</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>125</v>
+        <v>21</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>128</v>
+      <c r="B53" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="C54" s="1">
-        <v>11</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="B55" s="4"/>
       <c r="C55" s="1">
-        <v>5</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A56" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="A56" s="3"/>
       <c r="B56" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1">
       <c r="A58" s="3"/>
@@ -23019,7 +23063,10 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="62" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="63" spans="1:6" ht="16.5" customHeight="1"/>
@@ -23961,6 +24008,7 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273020F0-0393-4FF8-93CA-5676863BB3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7B1EBA-1A15-4253-8821-9150FA46EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -4598,7 +4598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="242">
   <si>
     <t>파일명</t>
   </si>
@@ -6086,9 +6086,6 @@
     </r>
   </si>
   <si>
-    <t>(컷 씬)&gt; (스테이지 필드) : 사진사의 필드 캐릭터가 스탠딩&gt; 사진사+아들로 변경된다.</t>
-  </si>
-  <si>
     <t>Hold, -1, name=Stage 1/4 SnowMountain/Standing to With Son</t>
   </si>
   <si>
@@ -6642,31 +6639,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Loop, -1, name=Stage 1/4 SnowMountain/#4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">눈보라, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>director=snowstorm</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Loop, -1, name=Stage 1/4 SnowMountain/#8 </t>
     </r>
     <r>
@@ -6852,12 +6824,396 @@
     <t>Left, Appear</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>path=Sfx/Play/Stage 1/2 Camping/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사진기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Mountain Audio - TV Remote Batteries Changing - Sound (2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>path=Sfx/Play/Stage 1/2 Camping/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Mountain Audio - TV Remote Batteries Changing - Sound (1)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>path=Sfx/Play/Stage 1/4 SnowMountain/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강아지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낑낑거리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANIMAL_DOG_Whimper_Attention_Seeking_04</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>path=Sfx/Play/Stage 1/1 SmallRoom/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불길한 소리/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>LDj_Audio - Annoying Horror Screamer (Mp3)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>path=Sfx/UI/Dialogue/시스템 획득/Positive click button 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loop, -1, name=Stage 1/4 SnowMountain/#4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈보라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, director=snowstorm</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Loop, -1, path=Sfx/Play/Stage 1/4 SnowMountain/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바람소리2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eerie Artic Winds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>director=snowstorm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sfx</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Loop, -1, path=Sfx/Play/Stage 1/4 SnowMountain/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바람소리1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Mountain Audio - Rumbling Wind, director=snowstorm sfx</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Loop, -1, path=Sfx/Play/Stage 1/4 SnowMountain/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바람소리3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Arctic Wind, director=snowstorm sfx</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body Fall on Car</t>
+  </si>
+  <si>
+    <r>
+      <t>path=Sfx/Play/Stage 1/4 SnowMountain/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷씬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰러짐/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BODYFALL-METAL_GEN-HDF-04288</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(컷 씬) &gt; (스테이지 필드)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진사의 필드 캐릭터가 스탠딩&gt; 사진사+아들로 변경된다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6868,6 +7224,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6962,6 +7319,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6996,7 +7366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7022,6 +7392,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7315,7 +7694,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1"/>
@@ -8342,7 +8721,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8415,7 +8794,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -8432,7 +8811,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -8453,7 +8832,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -8467,7 +8846,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -8475,7 +8854,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -8492,7 +8871,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -8503,7 +8882,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -9535,7 +9914,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9608,7 +9987,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -9646,7 +10025,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -9660,7 +10039,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -9668,7 +10047,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -9692,24 +10071,24 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
@@ -9717,7 +10096,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -9734,7 +10113,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -10768,7 +11147,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10841,7 +11220,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -10879,7 +11258,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -10893,7 +11272,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -11923,8 +12302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F11" sqref="B10:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11936,7 +12315,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12009,7 +12388,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -12026,7 +12405,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -12037,7 +12416,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -12048,7 +12427,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -12056,18 +12435,22 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
@@ -13080,7 +13463,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -13148,7 +13531,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14175,7 +14558,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -14190,7 +14573,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -14258,7 +14641,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14275,7 +14658,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -14286,7 +14669,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -14297,7 +14680,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -14305,10 +14688,10 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -14322,9 +14705,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="B12" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="F13" s="8"/>
+    </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
@@ -15324,8 +15727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -15337,7 +15740,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -15405,7 +15808,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -15419,10 +15822,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -15441,21 +15844,23 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C9" s="1">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="C10">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="C11" s="1"/>
@@ -16462,10 +16867,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16475,12 +16880,12 @@
     <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -16500,7 +16905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -16520,7 +16925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -16540,22 +16945,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+        <v>223</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -16567,7 +16972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1">
+    <row r="7" spans="1:7" ht="16.5" customHeight="1">
       <c r="C7" s="1">
         <v>11</v>
       </c>
@@ -16575,15 +16980,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>
@@ -17568,7 +17973,6 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
-    <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -17579,10 +17983,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:F21"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17597,7 +18001,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -17662,12 +18066,11 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
@@ -17675,7 +18078,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -17684,7 +18087,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
@@ -17692,7 +18095,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -17700,24 +18103,24 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
@@ -17725,7 +18128,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -17736,7 +18139,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -17747,7 +18150,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -17758,7 +18161,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -17766,24 +18169,24 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
@@ -17791,7 +18194,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -17813,7 +18216,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -17824,7 +18227,7 @@
         <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -17832,13 +18235,13 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
@@ -18827,7 +19230,6 @@
     <row r="997" ht="16.5" customHeight="1"/>
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18838,10 +19240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19102,123 +19504,135 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="5" t="s">
-        <v>43</v>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C26" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="3"/>
@@ -19234,7 +19648,7 @@
     </row>
     <row r="33" spans="1:2" ht="16.5" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" ht="16.5" customHeight="1">
       <c r="A34" s="3"/>
@@ -19242,7 +19656,7 @@
     </row>
     <row r="35" spans="1:2" ht="16.5" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" ht="16.5" customHeight="1">
       <c r="A36" s="3"/>
@@ -19274,7 +19688,7 @@
     </row>
     <row r="43" spans="1:2" ht="16.5" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="16.5" customHeight="1">
       <c r="A44" s="3"/>
@@ -19286,15 +19700,15 @@
     </row>
     <row r="46" spans="1:2" ht="16.5" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="16.5" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" ht="16.5" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:26" ht="16.5" customHeight="1">
       <c r="A49" s="3"/>
@@ -19302,77 +19716,77 @@
     </row>
     <row r="50" spans="1:26" ht="16.5" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="16.5" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="16.5" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
     </row>
     <row r="53" spans="1:26" ht="16.5" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:26" ht="16.5" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:26" ht="16.5" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:26" ht="16.5" customHeight="1">
       <c r="A57" s="3"/>
@@ -19396,7 +19810,7 @@
     </row>
     <row r="62" spans="1:26" ht="16.5" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="16.5" customHeight="1">
       <c r="A63" s="3"/>
@@ -19404,7 +19818,7 @@
     </row>
     <row r="64" spans="1:26" ht="16.5" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:3" ht="16.5" customHeight="1">
       <c r="A65" s="3"/>
@@ -19431,7 +19845,7 @@
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A71" s="7"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:3" ht="16.5" customHeight="1">
@@ -19443,17 +19857,17 @@
       <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A74" s="7"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A75" s="3"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A76" s="3"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" customHeight="1">
       <c r="A77" s="3"/>
@@ -19465,7 +19879,7 @@
     </row>
     <row r="79" spans="1:3" ht="16.5" customHeight="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:3" ht="16.5" customHeight="1">
       <c r="A80" s="3"/>
@@ -19473,23 +19887,23 @@
     </row>
     <row r="81" spans="1:2" ht="16.5" customHeight="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" ht="16.5" customHeight="1">
       <c r="A83" s="3"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2" ht="16.5" customHeight="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" ht="16.5" customHeight="1">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" ht="16.5" customHeight="1">
       <c r="A86" s="3"/>
@@ -19509,19 +19923,19 @@
     </row>
     <row r="90" spans="1:2" ht="16.5" customHeight="1">
       <c r="A90" s="3"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2" ht="16.5" customHeight="1">
       <c r="A91" s="3"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" ht="16.5" customHeight="1">
       <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2" ht="16.5" customHeight="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2" ht="16.5" customHeight="1">
       <c r="A94" s="3"/>
@@ -19541,7 +19955,7 @@
     </row>
     <row r="98" spans="1:2" ht="16.5" customHeight="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" ht="16.5" customHeight="1">
       <c r="A99" s="3"/>
@@ -19549,11 +19963,11 @@
     </row>
     <row r="100" spans="1:2" ht="16.5" customHeight="1">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2" ht="16.5" customHeight="1">
       <c r="A101" s="3"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2" ht="16.5" customHeight="1">
       <c r="A102" s="3"/>
@@ -19561,23 +19975,23 @@
     </row>
     <row r="103" spans="1:2" ht="16.5" customHeight="1">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2" ht="16.5" customHeight="1">
       <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2" ht="16.5" customHeight="1">
       <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2" ht="16.5" customHeight="1">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2" ht="16.5" customHeight="1">
       <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2" ht="16.5" customHeight="1">
       <c r="A108" s="3"/>
@@ -19609,7 +20023,7 @@
     </row>
     <row r="115" spans="1:2" ht="16.5" customHeight="1">
       <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:2" ht="16.5" customHeight="1">
       <c r="A116" s="3"/>
@@ -19617,11 +20031,11 @@
     </row>
     <row r="117" spans="1:2" ht="16.5" customHeight="1">
       <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2" ht="16.5" customHeight="1">
       <c r="A118" s="3"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2" ht="16.5" customHeight="1">
       <c r="A119" s="3"/>
@@ -19629,7 +20043,7 @@
     </row>
     <row r="120" spans="1:2" ht="16.5" customHeight="1">
       <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" ht="16.5" customHeight="1">
       <c r="A121" s="3"/>
@@ -19645,14 +20059,15 @@
     </row>
     <row r="124" spans="1:2" ht="16.5" customHeight="1">
       <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2" ht="16.5" customHeight="1">
       <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" ht="16.5" customHeight="1">
       <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2" ht="16.5" customHeight="1">
       <c r="A127" s="3"/>
@@ -19661,22 +20076,27 @@
     <row r="128" spans="1:2" ht="16.5" customHeight="1">
       <c r="A128" s="3"/>
     </row>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="129" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A129" s="3"/>
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="132" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="133" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="134" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="135" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="136" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="137" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="138" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="139" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="140" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="141" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="142" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="143" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="144" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="145" ht="16.5" customHeight="1"/>
     <row r="146" ht="16.5" customHeight="1"/>
     <row r="147" ht="16.5" customHeight="1"/>
@@ -20533,6 +20953,8 @@
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
+    <row r="1001" ht="16.5" customHeight="1"/>
+    <row r="1002" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20543,10 +20965,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -20625,82 +21047,79 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>29</v>
@@ -20708,67 +21127,70 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
+      <c r="F14" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1">
@@ -20776,63 +21198,54 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1">
         <v>11</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
@@ -20840,7 +21253,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -20848,301 +21261,327 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C21" s="1">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
+      <c r="C23" s="1">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C30" s="1">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>71</v>
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="1">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1">
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1">
+      <c r="D33" s="6">
+        <v>4</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>73</v>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D34" s="6">
-        <v>4</v>
-      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D41" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="1">
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1">
         <v>11</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="1">
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>8</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="1">
-        <v>11</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1">
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1">
+    <row r="46" spans="1:6" ht="16.5" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1">
+    <row r="47" spans="1:6" ht="16.5" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
@@ -21155,25 +21594,25 @@
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A51" s="3"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A52" s="7"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A53" s="3"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A55" s="7"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" ht="16.5" customHeight="1">
       <c r="A56" s="3"/>
@@ -21189,11 +21628,11 @@
     </row>
     <row r="59" spans="1:3" ht="16.5" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:3" ht="16.5" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" customHeight="1">
       <c r="A61" s="3"/>
@@ -21201,7 +21640,7 @@
     </row>
     <row r="62" spans="1:3" ht="16.5" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" customHeight="1">
       <c r="A63" s="3"/>
@@ -21209,7 +21648,7 @@
     </row>
     <row r="64" spans="1:3" ht="16.5" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" ht="16.5" customHeight="1">
       <c r="A65" s="3"/>
@@ -21233,7 +21672,7 @@
     </row>
     <row r="70" spans="1:2" ht="16.5" customHeight="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2" ht="16.5" customHeight="1">
       <c r="A71" s="3"/>
@@ -21241,7 +21680,7 @@
     </row>
     <row r="72" spans="1:2" ht="16.5" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" ht="16.5" customHeight="1">
       <c r="A73" s="3"/>
@@ -21265,11 +21704,11 @@
     </row>
     <row r="78" spans="1:2" ht="16.5" customHeight="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:2" ht="16.5" customHeight="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" ht="16.5" customHeight="1">
       <c r="A80" s="3"/>
@@ -21277,11 +21716,11 @@
     </row>
     <row r="81" spans="1:2" ht="16.5" customHeight="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" ht="16.5" customHeight="1">
       <c r="A83" s="3"/>
@@ -21289,7 +21728,7 @@
     </row>
     <row r="84" spans="1:2" ht="16.5" customHeight="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" ht="16.5" customHeight="1">
       <c r="A85" s="3"/>
@@ -21297,7 +21736,7 @@
     </row>
     <row r="86" spans="1:2" ht="16.5" customHeight="1">
       <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" ht="16.5" customHeight="1">
       <c r="A87" s="3"/>
@@ -21333,11 +21772,11 @@
     </row>
     <row r="95" spans="1:2" ht="16.5" customHeight="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2" ht="16.5" customHeight="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" ht="16.5" customHeight="1">
       <c r="A97" s="3"/>
@@ -21345,11 +21784,11 @@
     </row>
     <row r="98" spans="1:2" ht="16.5" customHeight="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2" ht="16.5" customHeight="1">
       <c r="A99" s="3"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" ht="16.5" customHeight="1">
       <c r="A100" s="3"/>
@@ -21363,10 +21802,7 @@
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" ht="16.5" customHeight="1">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-    </row>
+    <row r="103" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="104" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="105" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="106" spans="1:2" ht="16.5" customHeight="1"/>
@@ -22263,7 +22699,6 @@
     <row r="997" ht="16.5" customHeight="1"/>
     <row r="998" ht="16.5" customHeight="1"/>
     <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -22274,10 +22709,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1002"/>
+  <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22352,13 +22787,13 @@
         <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -22368,90 +22803,89 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>208</v>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
+      <c r="F11" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
@@ -22459,64 +22893,60 @@
         <v>87</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7</v>
-      </c>
-    </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>23</v>
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
@@ -22524,44 +22954,29 @@
         <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1">
         <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
@@ -22569,7 +22984,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -22577,157 +22992,151 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>98</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="F25" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="1">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>7</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>105</v>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1">
         <v>7</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1">
@@ -22735,7 +23144,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -22744,64 +23153,69 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>109</v>
+        <v>21</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>110</v>
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1">
@@ -22809,7 +23223,7 @@
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -22823,143 +23237,157 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>115</v>
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1">
-        <v>11</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="1">
-        <v>6</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
         <v>4</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="1">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="1">
-        <v>6</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>209</v>
+      <c r="F50" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1">
@@ -22967,7 +23395,7 @@
         <v>21</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -22980,113 +23408,190 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>126</v>
+      <c r="A53" s="3"/>
+      <c r="B53" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>128</v>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C54" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="C55" s="1">
-        <v>11</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="1">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="1">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="1">
         <v>5</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="1">
+      <c r="C64" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="62" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="64" spans="1:6" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="65" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="69" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="70" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="71" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="72" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="73" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="74" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="75" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="76" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="77" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="78" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="79" spans="1:2" ht="16.5" customHeight="1"/>
+    <row r="80" spans="1:2" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
     <row r="83" ht="16.5" customHeight="1"/>
@@ -24009,6 +24514,13 @@
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
     <row r="1002" ht="16.5" customHeight="1"/>
+    <row r="1003" ht="16.5" customHeight="1"/>
+    <row r="1004" ht="16.5" customHeight="1"/>
+    <row r="1005" ht="16.5" customHeight="1"/>
+    <row r="1006" ht="16.5" customHeight="1"/>
+    <row r="1007" ht="16.5" customHeight="1"/>
+    <row r="1008" ht="16.5" customHeight="1"/>
+    <row r="1009" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -24022,7 +24534,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A7:F7"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -24032,7 +24544,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -24097,10 +24609,10 @@
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -24114,10 +24626,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -25152,7 +25664,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
@@ -25220,7 +25732,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -25237,7 +25749,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -25256,7 +25768,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -25270,7 +25782,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -25278,7 +25790,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -26316,7 +26828,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -26389,7 +26901,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -26406,7 +26918,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -26427,7 +26939,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -26441,7 +26953,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -26449,7 +26961,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -27472,7 +27984,7 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -27487,7 +27999,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -27560,7 +28072,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -27577,7 +28089,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -27598,7 +28110,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -27612,7 +28124,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
@@ -28658,7 +29170,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -28731,7 +29243,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -28748,7 +29260,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -28769,7 +29281,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1">
@@ -28783,12 +29295,12 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -28796,7 +29308,7 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -28812,7 +29324,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>

--- a/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
+++ b/Assets/Editor/JsonUtility/JsonUtility/Stage1/SnowMountain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Project_Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project-Caterpillar\Assets\Editor\JsonUtility\JsonUtility\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7B1EBA-1A15-4253-8821-9150FA46EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7162B-0DE5-4E6D-8720-DABB0AF04619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Sample" sheetId="1" r:id="rId1"/>
@@ -4598,7 +4598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="243">
   <si>
     <t>파일명</t>
   </si>
@@ -7208,6 +7208,10 @@
     <t>사진사의 필드 캐릭터가 스탠딩&gt; 사진사+아들로 변경된다.</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>Ring:Add</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -12302,7 +12306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -15728,7 +15732,7 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="D5:F5"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17985,8 +17989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18099,6 +18103,9 @@
       </c>
       <c r="C7" s="1">
         <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1">
@@ -22711,8 +22718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
